--- a/GRSM SAR DB/Divisions.xlsx
+++ b/GRSM SAR DB/Divisions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12840"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="27795" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Park Divisions" sheetId="1" r:id="rId1"/>
